--- a/pytest/data/simOU.xlsx
+++ b/pytest/data/simOU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\bcho\PROJECTS\risktools-dev\pytest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C83F06A9-D3AA-4DBF-B1E9-1695C672FF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8359851-1FBD-47F1-9A59-A04EF56BA88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="37920" xr2:uid="{DEA7DFA7-6C00-41DA-A141-4516C97EF5CE}"/>
+    <workbookView xWindow="2540" yWindow="1420" windowWidth="27010" windowHeight="18070" xr2:uid="{DEA7DFA7-6C00-41DA-A141-4516C97EF5CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>dt</t>
   </si>
@@ -58,6 +58,30 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>jump-size</t>
+  </si>
+  <si>
+    <t>jump-prob</t>
+  </si>
+  <si>
+    <t>jump-std</t>
+  </si>
+  <si>
+    <t>sj</t>
+  </si>
+  <si>
+    <t>elp</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>log prices</t>
+  </si>
+  <si>
+    <t>abs prices</t>
+  </si>
 </sst>
 </file>
 
@@ -65,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -104,11 +128,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -424,20 +449,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2AC277-EB75-4B86-8301-E7A49E4CF717}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -462,8 +496,56 @@
       <c r="I2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N2" t="str">
+        <f>A2</f>
+        <v>dt</v>
+      </c>
+      <c r="O2">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>C2</f>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <f>D2</f>
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <f>E2</f>
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <f>F2</f>
+        <v>5</v>
+      </c>
+      <c r="U2" t="str">
+        <f>N2</f>
+        <v>dt</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:Z3" si="0">O2</f>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -488,10 +570,58 @@
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N3" s="1">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:S3" si="1">B3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U19" si="2">N3</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f>A3+0.25</f>
+        <f t="shared" ref="A4:A19" si="3">A3+0.25</f>
         <v>0.25</v>
       </c>
       <c r="B4">
@@ -515,10 +645,53 @@
       <c r="I4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N4" s="1">
+        <f>A4</f>
+        <v>0.25</v>
+      </c>
+      <c r="O4">
+        <f>$I$8</f>
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:S4" si="4">$I$8</f>
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <f>A4+0.25</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="B5">
@@ -542,10 +715,53 @@
       <c r="I5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N5" s="1">
+        <f>A5</f>
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:S19" si="5">$I$8</f>
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <f>A5+0.25</f>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="B6">
@@ -569,10 +785,53 @@
       <c r="I6">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N6" s="1">
+        <f>A6</f>
+        <v>0.75</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <f>A6+0.25</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B7">
@@ -590,10 +849,53 @@
       <c r="F7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N7" s="1">
+        <f>A7</f>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <f>A7+0.25</f>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="B8">
@@ -611,10 +913,59 @@
       <c r="F8">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:N19" si="6">A8</f>
+        <v>1.25</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <f>A8+0.25</f>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="B9">
@@ -632,10 +983,59 @@
       <c r="F9">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <f>A9+0.25</f>
+        <f t="shared" si="3"/>
         <v>1.75</v>
       </c>
       <c r="B10">
@@ -653,10 +1053,59 @@
       <c r="F10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>0.32</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="6"/>
+        <v>1.75</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>1.75</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <f>A10+0.25</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="B11">
@@ -674,10 +1123,53 @@
       <c r="F11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <f>A11+0.25</f>
+        <f t="shared" si="3"/>
         <v>2.25</v>
       </c>
       <c r="B12">
@@ -695,10 +1187,53 @@
       <c r="F12">
         <v>-0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="1">
+        <f t="shared" si="6"/>
+        <v>2.25</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <f>A12+0.25</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="B13">
@@ -716,10 +1251,53 @@
       <c r="F13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="1">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <f>A13+0.25</f>
+        <f t="shared" si="3"/>
         <v>2.75</v>
       </c>
       <c r="B14">
@@ -737,10 +1315,53 @@
       <c r="F14">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="1">
+        <f t="shared" si="6"/>
+        <v>2.75</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <f>A14+0.25</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="B15">
@@ -758,10 +1379,53 @@
       <c r="F15">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="1">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <f>A15+0.25</f>
+        <f t="shared" si="3"/>
         <v>3.25</v>
       </c>
       <c r="B16">
@@ -779,10 +1443,53 @@
       <c r="F16">
         <v>-0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="N16" s="1">
+        <f t="shared" si="6"/>
+        <v>3.25</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>3.25</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <f>A16+0.25</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="B17">
@@ -800,10 +1507,53 @@
       <c r="F17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="N17" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <f>A17+0.25</f>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
       <c r="B18">
@@ -821,10 +1571,53 @@
       <c r="F18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="N18" s="1">
+        <f t="shared" si="6"/>
+        <v>3.75</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="2"/>
+        <v>3.75</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <f>A18+0.25</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B19">
@@ -842,13 +1635,65 @@
       <c r="F19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="N19" s="1">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -867,8 +1712,26 @@
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -877,25 +1740,48 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:F25" si="0">$I$2</f>
+        <f t="shared" ref="C25:F25" si="7">$I$2</f>
         <v>5</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <f>$I$2</f>
+        <v>5</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" ref="J25:M25" si="8">$I$2</f>
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <f>A25+0.25</f>
+        <f t="shared" ref="A26:A41" si="9">A25+0.25</f>
         <v>0.25</v>
       </c>
       <c r="B26" s="3">
@@ -903,413 +1789,798 @@
         <v>4.5031999999999996</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:F41" si="1">C25+($I$4*($I$3-C25)-0.5*$I$6^2)*$I$5+$I$6*SQRT($I$5)*C4</f>
+        <f t="shared" ref="C26:F41" si="10">C25+($I$4*($I$3-C25)-0.5*$I$6^2)*$I$5+$I$6*SQRT($I$5)*C4</f>
         <v>4.5031999999999996</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.5031999999999996</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.5031999999999996</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.5031999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:H41" si="11">H25+0.25</f>
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="3">
+        <f>I25+$I$4*($I$3 - $I$9*$I$8-I25)*I25*$I$5+$I$6*I25*SQRT($I$5)*B4 + O4*V4</f>
+        <v>2.33</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" ref="J26:M26" si="12">J25+$I$4*($I$3 - $I$9*$I$8-J25)*J25*$I$5+$I$6*J25*SQRT($I$5)*C4 + P4*W4</f>
+        <v>2.33</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="12"/>
+        <v>2.33</v>
+      </c>
+      <c r="L26" s="3">
+        <f t="shared" si="12"/>
+        <v>2.33</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="12"/>
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <f>A26+0.25</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:B41" si="2">B26+($I$4*($I$3-B26)-0.5*$I$6^2)*$I$5+$I$6*SQRT($I$5)*B5</f>
+        <f t="shared" ref="B27:B41" si="13">B26+($I$4*($I$3-B26)-0.5*$I$6^2)*$I$5+$I$6*SQRT($I$5)*B5</f>
         <v>4.2067999999999994</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.2067999999999994</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.2067999999999994</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.2067999999999994</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.2067999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="I27" s="3">
+        <f>I26+$I$4*($I$3 - $I$9*$I$8-I26)*I26*$I$5+$I$6*I26*SQRT($I$5)*B5 + O5*V5</f>
+        <v>4.0844899999999997</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" ref="J27:M27" si="14">J26+$I$4*($I$3 - $I$9*$I$8-J26)*J26*$I$5+$I$6*J26*SQRT($I$5)*C5 + P5*W5</f>
+        <v>4.0844899999999997</v>
+      </c>
+      <c r="K27" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0844899999999997</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0844899999999997</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="14"/>
+        <v>4.0844899999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <f>A27+0.25</f>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.1705999999999994</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1705999999999994</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1705999999999994</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1705999999999994</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1705999999999994</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="I28" s="3">
+        <f>I27+$I$4*($I$3 - $I$9*$I$8-I27)*I27*$I$5+$I$6*I27*SQRT($I$5)*B6 + O6*V6</f>
+        <v>4.0344754199499997</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:M28" si="15">J27+$I$4*($I$3 - $I$9*$I$8-J27)*J27*$I$5+$I$6*J27*SQRT($I$5)*C6 + P6*W6</f>
+        <v>4.0344754199499997</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="15"/>
+        <v>4.0344754199499997</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="15"/>
+        <v>4.0344754199499997</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="15"/>
+        <v>4.0344754199499997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <f>A28+0.25</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.1204999999999998</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1204999999999998</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1204999999999998</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1204999999999998</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.1204999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <f>I28+$I$4*($I$3 - $I$9*$I$8-I28)*I28*$I$5+$I$6*I28*SQRT($I$5)*B7 + O7*V7</f>
+        <v>3.956861351919736</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" ref="J29:M29" si="16">J28+$I$4*($I$3 - $I$9*$I$8-J28)*J28*$I$5+$I$6*J28*SQRT($I$5)*C7 + P7*W7</f>
+        <v>3.956861351919736</v>
+      </c>
+      <c r="K29" s="3">
+        <f t="shared" si="16"/>
+        <v>3.956861351919736</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="16"/>
+        <v>3.956861351919736</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="16"/>
+        <v>3.956861351919736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <f>A29+0.25</f>
+        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
       <c r="B30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9834499999999995</v>
       </c>
       <c r="C30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9834499999999995</v>
       </c>
       <c r="D30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9834499999999995</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9834499999999995</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9834499999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
+        <f t="shared" si="11"/>
+        <v>1.25</v>
+      </c>
+      <c r="I30" s="3">
+        <f>I29+$I$4*($I$3 - $I$9*$I$8-I29)*I29*$I$5+$I$6*I29*SQRT($I$5)*B8 + O8*V8</f>
+        <v>3.5911259824823176</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" ref="J30:M30" si="17">J29+$I$4*($I$3 - $I$9*$I$8-J29)*J29*$I$5+$I$6*J29*SQRT($I$5)*C8 + P8*W8</f>
+        <v>3.5911259824823176</v>
+      </c>
+      <c r="K30" s="3">
+        <f t="shared" si="17"/>
+        <v>3.5911259824823176</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="17"/>
+        <v>3.5911259824823176</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="17"/>
+        <v>3.5911259824823176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <f>A30+0.25</f>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="B31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9309249999999998</v>
       </c>
       <c r="C31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9309249999999998</v>
       </c>
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9309249999999998</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9309249999999998</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9309249999999998</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="3">
+        <f>I30+$I$4*($I$3 - $I$9*$I$8-I30)*I30*$I$5+$I$6*I30*SQRT($I$5)*B9 + O9*V9</f>
+        <v>4.9733546901338901</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" ref="J31:M31" si="18">J30+$I$4*($I$3 - $I$9*$I$8-J30)*J30*$I$5+$I$6*J30*SQRT($I$5)*C9 + P9*W9</f>
+        <v>4.9733546901338901</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" si="18"/>
+        <v>4.9733546901338901</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="18"/>
+        <v>4.9733546901338901</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="18"/>
+        <v>4.9733546901338901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <f>A31+0.25</f>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="B32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9846624999999998</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9846624999999998</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9846624999999998</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9846624999999998</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9846624999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H32" s="1">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+      <c r="I32" s="3">
+        <f>I31+$I$4*($I$3 - $I$9*$I$8-I31)*I31*$I$5+$I$6*I31*SQRT($I$5)*B10 + O10*V10</f>
+        <v>2.4634152490408794</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" ref="J32:M32" si="19">J31+$I$4*($I$3 - $I$9*$I$8-J31)*J31*$I$5+$I$6*J31*SQRT($I$5)*C10 + P10*W10</f>
+        <v>2.4634152490408794</v>
+      </c>
+      <c r="K32" s="3">
+        <f t="shared" si="19"/>
+        <v>2.4634152490408794</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="19"/>
+        <v>2.4634152490408794</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="19"/>
+        <v>2.4634152490408794</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <f>A32+0.25</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.99553125</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.99553125</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.99553125</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.99553125</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.99553125</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H33" s="1">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="3">
+        <f>I32+$I$4*($I$3 - $I$9*$I$8-I32)*I32*$I$5+$I$6*I32*SQRT($I$5)*B11 + O11*V11</f>
+        <v>4.2722822840516788</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" ref="J33:M33" si="20">J32+$I$4*($I$3 - $I$9*$I$8-J32)*J32*$I$5+$I$6*J32*SQRT($I$5)*C11 + P11*W11</f>
+        <v>4.2722822840516788</v>
+      </c>
+      <c r="K33" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2722822840516788</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2722822840516788</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="20"/>
+        <v>4.2722822840516788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <f>A33+0.25</f>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.952965625</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.952965625</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.952965625</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.952965625</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.952965625</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H34" s="1">
+        <f t="shared" si="11"/>
+        <v>2.25</v>
+      </c>
+      <c r="I34" s="3">
+        <f>I33+$I$4*($I$3 - $I$9*$I$8-I33)*I33*$I$5+$I$6*I33*SQRT($I$5)*B12 + O12*V12</f>
+        <v>3.3403217475518843</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" ref="J34:M34" si="21">J33+$I$4*($I$3 - $I$9*$I$8-J33)*J33*$I$5+$I$6*J33*SQRT($I$5)*C12 + P12*W12</f>
+        <v>3.3403217475518843</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="21"/>
+        <v>3.3403217475518843</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="21"/>
+        <v>3.3403217475518843</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="21"/>
+        <v>3.3403217475518843</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <f>A34+0.25</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="B35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.0436828125000002</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0436828125000002</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0436828125000002</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0436828125000002</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0436828125000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H35" s="1">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="3">
+        <f>I34+$I$4*($I$3 - $I$9*$I$8-I34)*I34*$I$5+$I$6*I34*SQRT($I$5)*B13 + O13*V13</f>
+        <v>4.5423002064981723</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" ref="J35:M35" si="22">J34+$I$4*($I$3 - $I$9*$I$8-J34)*J34*$I$5+$I$6*J34*SQRT($I$5)*C13 + P13*W13</f>
+        <v>4.5423002064981723</v>
+      </c>
+      <c r="K35" s="3">
+        <f t="shared" si="22"/>
+        <v>4.5423002064981723</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="22"/>
+        <v>4.5423002064981723</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="22"/>
+        <v>4.5423002064981723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <f>A35+0.25</f>
+        <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
       <c r="B36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.0570414062499998</v>
       </c>
       <c r="C36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0570414062499998</v>
       </c>
       <c r="D36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0570414062499998</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0570414062499998</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0570414062499998</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H36" s="1">
+        <f t="shared" si="11"/>
+        <v>2.75</v>
+      </c>
+      <c r="I36" s="3">
+        <f>I35+$I$4*($I$3 - $I$9*$I$8-I35)*I35*$I$5+$I$6*I35*SQRT($I$5)*B14 + O14*V14</f>
+        <v>3.3015704361048508</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" ref="J36:M36" si="23">J35+$I$4*($I$3 - $I$9*$I$8-J35)*J35*$I$5+$I$6*J35*SQRT($I$5)*C14 + P14*W14</f>
+        <v>3.3015704361048508</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3015704361048508</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3015704361048508</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3015704361048508</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <f>A36+0.25</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9517207031249999</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9517207031249999</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9517207031249999</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9517207031249999</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9517207031249999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="3">
+        <f>I36+$I$4*($I$3 - $I$9*$I$8-I36)*I36*$I$5+$I$6*I36*SQRT($I$5)*B15 + O15*V15</f>
+        <v>4.0781486063178116</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" ref="J37:M37" si="24">J36+$I$4*($I$3 - $I$9*$I$8-J36)*J36*$I$5+$I$6*J36*SQRT($I$5)*C15 + P15*W15</f>
+        <v>4.0781486063178116</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="24"/>
+        <v>4.0781486063178116</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="24"/>
+        <v>4.0781486063178116</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="24"/>
+        <v>4.0781486063178116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <f>A37+0.25</f>
+        <f t="shared" si="9"/>
         <v>3.25</v>
       </c>
       <c r="B38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9150603515625</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9150603515625</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9150603515625</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9150603515625</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9150603515625</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
+        <f t="shared" si="11"/>
+        <v>3.25</v>
+      </c>
+      <c r="I38" s="3">
+        <f>I37+$I$4*($I$3 - $I$9*$I$8-I37)*I37*$I$5+$I$6*I37*SQRT($I$5)*B16 + O16*V16</f>
+        <v>3.5191392279283344</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" ref="J38:M38" si="25">J37+$I$4*($I$3 - $I$9*$I$8-J37)*J37*$I$5+$I$6*J37*SQRT($I$5)*C16 + P16*W16</f>
+        <v>3.5191392279283344</v>
+      </c>
+      <c r="K38" s="3">
+        <f t="shared" si="25"/>
+        <v>3.5191392279283344</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="25"/>
+        <v>3.5191392279283344</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="25"/>
+        <v>3.5191392279283344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <f>A38+0.25</f>
+        <f t="shared" si="9"/>
         <v>3.5</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.9767301757812499</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9767301757812499</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9767301757812499</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9767301757812499</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.9767301757812499</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
+        <f t="shared" si="11"/>
+        <v>3.5</v>
+      </c>
+      <c r="I39" s="3">
+        <f>I38+$I$4*($I$3 - $I$9*$I$8-I38)*I38*$I$5+$I$6*I38*SQRT($I$5)*B17 + O17*V17</f>
+        <v>4.3019027249102768</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" ref="J39:M39" si="26">J38+$I$4*($I$3 - $I$9*$I$8-J38)*J38*$I$5+$I$6*J38*SQRT($I$5)*C17 + P17*W17</f>
+        <v>4.3019027249102768</v>
+      </c>
+      <c r="K39" s="3">
+        <f t="shared" si="26"/>
+        <v>4.3019027249102768</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="26"/>
+        <v>4.3019027249102768</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="26"/>
+        <v>4.3019027249102768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <f>A39+0.25</f>
+        <f t="shared" si="9"/>
         <v>3.75</v>
       </c>
       <c r="B40" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>3.991565087890625</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.991565087890625</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.991565087890625</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.991565087890625</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>3.991565087890625</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
+        <f t="shared" si="11"/>
+        <v>3.75</v>
+      </c>
+      <c r="I40" s="3">
+        <f>I39+$I$4*($I$3 - $I$9*$I$8-I39)*I39*$I$5+$I$6*I39*SQRT($I$5)*B18 + O18*V18</f>
+        <v>3.5062599547886482</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" ref="J40:M40" si="27">J39+$I$4*($I$3 - $I$9*$I$8-J39)*J39*$I$5+$I$6*J39*SQRT($I$5)*C18 + P18*W18</f>
+        <v>3.5062599547886482</v>
+      </c>
+      <c r="K40" s="3">
+        <f t="shared" si="27"/>
+        <v>3.5062599547886482</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="27"/>
+        <v>3.5062599547886482</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="27"/>
+        <v>3.5062599547886482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <f>A40+0.25</f>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="B41" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>4.0629825439453127</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0629825439453127</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0629825439453127</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0629825439453127</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>4.0629825439453127</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
+        <f>I40+$I$4*($I$3 - $I$9*$I$8-I40)*I40*$I$5+$I$6*I40*SQRT($I$5)*B19 + O19*V19</f>
+        <v>4.4770382277323568</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" ref="J41:M41" si="28">J40+$I$4*($I$3 - $I$9*$I$8-J40)*J40*$I$5+$I$6*J40*SQRT($I$5)*C19 + P19*W19</f>
+        <v>4.4770382277323568</v>
+      </c>
+      <c r="K41" s="3">
+        <f t="shared" si="28"/>
+        <v>4.4770382277323568</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="28"/>
+        <v>4.4770382277323568</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="28"/>
+        <v>4.4770382277323568</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>